--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{365CFC2D-2CC9-9445-9ED5-4E4D0D5B72FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E411621-8491-7347-83E9-7538EF9A3B25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>BANEP</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>MVID</t>
+  </si>
+  <si>
+    <t>HYDR</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A26CE-BD0D-C046-AB98-C114D11257FF}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1118,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9.5560599999999999E-3</v>
+      </c>
+      <c r="C33">
+        <v>1.3587510000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.561855E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.8863000000000002E-2</v>
+      </c>
+      <c r="F33">
+        <v>4.6624499999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E411621-8491-7347-83E9-7538EF9A3B25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A4CE8DD-740A-F54B-8464-2A80DC3F8FAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="1" r:id="rId1"/>
+    <sheet name="RAW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>BANEP</t>
   </si>
@@ -121,6 +122,15 @@
   </si>
   <si>
     <t>HYDR</t>
+  </si>
+  <si>
+    <t>MTLRP</t>
+  </si>
+  <si>
+    <t>Прогноз</t>
+  </si>
+  <si>
+    <t>Рекомендация</t>
   </si>
 </sst>
 </file>
@@ -137,12 +147,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,8 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,16 +497,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A26CE-BD0D-C046-AB98-C114D11257FF}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1">
+        <f>RAW!B1</f>
+        <v>2012</v>
+      </c>
+      <c r="C1">
+        <f>RAW!C1</f>
+        <v>2013</v>
+      </c>
+      <c r="D1">
+        <f>RAW!D1</f>
+        <v>2014</v>
+      </c>
+      <c r="E1">
+        <f>RAW!E1</f>
+        <v>2015</v>
+      </c>
+      <c r="F1">
+        <f>RAW!F1</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>RAW!A2</f>
+        <v>AFLT</v>
+      </c>
+      <c r="B2">
+        <f>RAW!B2</f>
+        <v>1.1636</v>
+      </c>
+      <c r="C2">
+        <f>RAW!C2</f>
+        <v>2.4984000000000002</v>
+      </c>
+      <c r="D2">
+        <f>RAW!D2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>RAW!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>RAW!F2</f>
+        <v>17.479500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>RAW!A3</f>
+        <v>AKRN</v>
+      </c>
+      <c r="B3">
+        <f>RAW!B3</f>
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <f>RAW!C3</f>
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <f>RAW!D3</f>
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <f>RAW!E3</f>
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <f>RAW!F3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>RAW!A4</f>
+        <v>BANEP</v>
+      </c>
+      <c r="B4">
+        <f>RAW!B4</f>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f>RAW!C4</f>
+        <v>410</v>
+      </c>
+      <c r="D4">
+        <f>RAW!D4</f>
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <f>RAW!E4</f>
+        <v>164</v>
+      </c>
+      <c r="F4">
+        <f>RAW!F4</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>RAW!A5</f>
+        <v>CHMF</v>
+      </c>
+      <c r="B5">
+        <f>RAW!B5</f>
+        <v>10.66</v>
+      </c>
+      <c r="C5">
+        <f>RAW!C5</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D5">
+        <f>RAW!D5</f>
+        <v>73.680000000000007</v>
+      </c>
+      <c r="E5">
+        <f>RAW!E5</f>
+        <v>58.879999999999995</v>
+      </c>
+      <c r="F5">
+        <f>RAW!F5</f>
+        <v>80.100000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>RAW!A6</f>
+        <v>ENRU</v>
+      </c>
+      <c r="B6">
+        <f>RAW!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>RAW!C6</f>
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <f>RAW!D6</f>
+        <v>8.0730999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <f>RAW!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>RAW!F6</f>
+        <v>6.8220000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>RAW!A7</f>
+        <v>GAZP</v>
+      </c>
+      <c r="B7">
+        <f>RAW!B7</f>
+        <v>5.99</v>
+      </c>
+      <c r="C7">
+        <f>RAW!C7</f>
+        <v>7.2</v>
+      </c>
+      <c r="D7">
+        <f>RAW!D7</f>
+        <v>7.2</v>
+      </c>
+      <c r="E7">
+        <f>RAW!E7</f>
+        <v>7.89</v>
+      </c>
+      <c r="F7">
+        <f>RAW!F7</f>
+        <v>8.0396999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>RAW!A8</f>
+        <v>GMKN</v>
+      </c>
+      <c r="B8">
+        <f>RAW!B8</f>
+        <v>400.83</v>
+      </c>
+      <c r="C8">
+        <f>RAW!C8</f>
+        <v>469.17999999999995</v>
+      </c>
+      <c r="D8">
+        <f>RAW!D8</f>
+        <v>1432.38</v>
+      </c>
+      <c r="E8">
+        <f>RAW!E8</f>
+        <v>857.16</v>
+      </c>
+      <c r="F8">
+        <f>RAW!F8</f>
+        <v>890.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>RAW!A9</f>
+        <v>HYDR</v>
+      </c>
+      <c r="B9">
+        <f>RAW!B9</f>
+        <v>9.5560599999999999E-3</v>
+      </c>
+      <c r="C9">
+        <f>RAW!C9</f>
+        <v>1.3587510000000001E-2</v>
+      </c>
+      <c r="D9">
+        <f>RAW!D9</f>
+        <v>1.561855E-2</v>
+      </c>
+      <c r="E9">
+        <f>RAW!E9</f>
+        <v>3.8863000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <f>RAW!F9</f>
+        <v>4.6624499999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>RAW!A10</f>
+        <v>KBTK</v>
+      </c>
+      <c r="B10">
+        <f>RAW!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>RAW!C10</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>RAW!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>RAW!E10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F10">
+        <f>RAW!F10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>RAW!A11</f>
+        <v>LKOH</v>
+      </c>
+      <c r="B11">
+        <f>RAW!B11</f>
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <f>RAW!C11</f>
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <f>RAW!D11</f>
+        <v>154</v>
+      </c>
+      <c r="E11">
+        <f>RAW!E11</f>
+        <v>177</v>
+      </c>
+      <c r="F11">
+        <f>RAW!F11</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>RAW!A12</f>
+        <v>LSNGP</v>
+      </c>
+      <c r="B12">
+        <f>RAW!B12</f>
+        <v>1.3234735039000001</v>
+      </c>
+      <c r="C12">
+        <f>RAW!C12</f>
+        <v>0.4556</v>
+      </c>
+      <c r="D12">
+        <f>RAW!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>RAW!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>RAW!F12</f>
+        <v>8.107405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>RAW!A13</f>
+        <v>LSRG</v>
+      </c>
+      <c r="B13">
+        <f>RAW!B13</f>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <f>RAW!C13</f>
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f>RAW!D13</f>
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <f>RAW!E13</f>
+        <v>78</v>
+      </c>
+      <c r="F13">
+        <f>RAW!F13</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>RAW!A14</f>
+        <v>MAGN</v>
+      </c>
+      <c r="B14">
+        <f>RAW!B14</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C14">
+        <f>RAW!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>RAW!D14</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E14">
+        <f>RAW!E14</f>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F14">
+        <f>RAW!F14</f>
+        <v>1.962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>RAW!A15</f>
+        <v>MFON</v>
+      </c>
+      <c r="B15">
+        <f>RAW!B15</f>
+        <v>299.11060000000003</v>
+      </c>
+      <c r="C15">
+        <f>RAW!C15</f>
+        <v>74.850000000000009</v>
+      </c>
+      <c r="D15">
+        <f>RAW!D15</f>
+        <v>16.13</v>
+      </c>
+      <c r="E15">
+        <f>RAW!E15</f>
+        <v>112.89000000000001</v>
+      </c>
+      <c r="F15">
+        <f>RAW!F15</f>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>RAW!A16</f>
+        <v>MOEX</v>
+      </c>
+      <c r="B16">
+        <f>RAW!B16</f>
+        <v>1.22</v>
+      </c>
+      <c r="C16">
+        <f>RAW!C16</f>
+        <v>2.38</v>
+      </c>
+      <c r="D16">
+        <f>RAW!D16</f>
+        <v>3.87</v>
+      </c>
+      <c r="E16">
+        <f>RAW!E16</f>
+        <v>7.11</v>
+      </c>
+      <c r="F16">
+        <f>RAW!F16</f>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>RAW!A17</f>
+        <v>MRKC</v>
+      </c>
+      <c r="B17">
+        <f>RAW!B17</f>
+        <v>2.044E-2</v>
+      </c>
+      <c r="C17">
+        <f>RAW!C17</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="D17">
+        <f>RAW!D17</f>
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <f>RAW!E17</f>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <f>RAW!F17</f>
+        <v>4.4215194999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>RAW!A18</f>
+        <v>MRSB</v>
+      </c>
+      <c r="B18">
+        <f>RAW!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>RAW!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>RAW!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>RAW!E18</f>
+        <v>3.09971E-2</v>
+      </c>
+      <c r="F18">
+        <f>RAW!F18</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>RAW!A19</f>
+        <v>MSRS</v>
+      </c>
+      <c r="B19">
+        <f>RAW!B19</f>
+        <v>8.8201000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <f>RAW!C19</f>
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="D19">
+        <f>RAW!D19</f>
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <f>RAW!E19</f>
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="F19">
+        <f>RAW!F19</f>
+        <v>3.1205E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>RAW!A20</f>
+        <v>MSTT</v>
+      </c>
+      <c r="B20">
+        <f>RAW!B20</f>
+        <v>7.8</v>
+      </c>
+      <c r="C20">
+        <f>RAW!C20</f>
+        <v>7.09</v>
+      </c>
+      <c r="D20">
+        <f>RAW!D20</f>
+        <v>7.09</v>
+      </c>
+      <c r="E20">
+        <f>RAW!E20</f>
+        <v>10.64</v>
+      </c>
+      <c r="F20">
+        <f>RAW!F20</f>
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>RAW!A21</f>
+        <v>MTLRP</v>
+      </c>
+      <c r="B21">
+        <f>RAW!B21</f>
+        <v>0.05</v>
+      </c>
+      <c r="C21">
+        <f>RAW!C21</f>
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <f>RAW!D21</f>
+        <v>0.05</v>
+      </c>
+      <c r="E21">
+        <f>RAW!E21</f>
+        <v>0.05</v>
+      </c>
+      <c r="F21">
+        <f>RAW!F21</f>
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>RAW!A22</f>
+        <v>MTSS</v>
+      </c>
+      <c r="B22">
+        <f>RAW!B22</f>
+        <v>14.6</v>
+      </c>
+      <c r="C22">
+        <f>RAW!C22</f>
+        <v>23.82</v>
+      </c>
+      <c r="D22">
+        <f>RAW!D22</f>
+        <v>25.759999999999998</v>
+      </c>
+      <c r="E22">
+        <f>RAW!E22</f>
+        <v>19.62</v>
+      </c>
+      <c r="F22">
+        <f>RAW!F22</f>
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>RAW!A23</f>
+        <v>MVID</v>
+      </c>
+      <c r="B23">
+        <f>RAW!B23</f>
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f>RAW!C23</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D23">
+        <f>RAW!D23</f>
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <f>RAW!E23</f>
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>RAW!F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>RAW!A24</f>
+        <v>NMTP</v>
+      </c>
+      <c r="B24">
+        <f>RAW!B24</f>
+        <v>2.3619999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <f>RAW!C24</f>
+        <v>2.3363999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <f>RAW!D24</f>
+        <v>0.2336</v>
+      </c>
+      <c r="E24">
+        <f>RAW!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>RAW!F24</f>
+        <v>1.2977452999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>RAW!A25</f>
+        <v>PHOR</v>
+      </c>
+      <c r="B25">
+        <f>RAW!B25</f>
+        <v>82.9</v>
+      </c>
+      <c r="C25">
+        <f>RAW!C25</f>
+        <v>34.75</v>
+      </c>
+      <c r="D25">
+        <f>RAW!D25</f>
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <f>RAW!E25</f>
+        <v>225</v>
+      </c>
+      <c r="F25">
+        <f>RAW!F25</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>RAW!A26</f>
+        <v>PMSBP</v>
+      </c>
+      <c r="B26">
+        <f>RAW!B26</f>
+        <v>11.456977999999999</v>
+      </c>
+      <c r="C26">
+        <f>RAW!C26</f>
+        <v>6.80762</v>
+      </c>
+      <c r="D26">
+        <f>RAW!D26</f>
+        <v>6.8545569999999998</v>
+      </c>
+      <c r="E26">
+        <f>RAW!E26</f>
+        <v>6.8774629999999997</v>
+      </c>
+      <c r="F26">
+        <f>RAW!F26</f>
+        <v>6.9754079999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>RAW!A27</f>
+        <v>PRTK</v>
+      </c>
+      <c r="B27">
+        <f>RAW!B27</f>
+        <v>3.24</v>
+      </c>
+      <c r="C27">
+        <f>RAW!C27</f>
+        <v>5.85</v>
+      </c>
+      <c r="D27">
+        <f>RAW!D27</f>
+        <v>1.9</v>
+      </c>
+      <c r="E27">
+        <f>RAW!E27</f>
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <f>RAW!F27</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>RAW!A28</f>
+        <v>RSTIP</v>
+      </c>
+      <c r="B28">
+        <f>RAW!B28</f>
+        <v>0.08</v>
+      </c>
+      <c r="C28">
+        <f>RAW!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>RAW!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>RAW!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>RAW!F28</f>
+        <v>0.442881421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>RAW!A29</f>
+        <v>RTKM</v>
+      </c>
+      <c r="B29">
+        <f>RAW!B29</f>
+        <v>2.4369000000000001</v>
+      </c>
+      <c r="C29">
+        <f>RAW!C29</f>
+        <v>3.1159598600780001</v>
+      </c>
+      <c r="D29">
+        <f>RAW!D29</f>
+        <v>3.3410827942322801</v>
+      </c>
+      <c r="E29">
+        <f>RAW!E29</f>
+        <v>5.9154669462660001</v>
+      </c>
+      <c r="F29">
+        <f>RAW!F29</f>
+        <v>5.3870020455900001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>RAW!A30</f>
+        <v>RTKMP</v>
+      </c>
+      <c r="B30">
+        <f>RAW!B30</f>
+        <v>4.1021999999999998</v>
+      </c>
+      <c r="C30">
+        <f>RAW!C30</f>
+        <v>4.848555414552</v>
+      </c>
+      <c r="D30">
+        <f>RAW!D30</f>
+        <v>4.0500339046320004</v>
+      </c>
+      <c r="E30">
+        <f>RAW!E30</f>
+        <v>5.9154669462660001</v>
+      </c>
+      <c r="F30">
+        <f>RAW!F30</f>
+        <v>5.3870020455900001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>RAW!A31</f>
+        <v>SNGSP</v>
+      </c>
+      <c r="B31">
+        <f>RAW!B31</f>
+        <v>1.48</v>
+      </c>
+      <c r="C31">
+        <f>RAW!C31</f>
+        <v>2.36</v>
+      </c>
+      <c r="D31">
+        <f>RAW!D31</f>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E31">
+        <f>RAW!E31</f>
+        <v>6.92</v>
+      </c>
+      <c r="F31">
+        <f>RAW!F31</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>RAW!A32</f>
+        <v>TTLK</v>
+      </c>
+      <c r="B32">
+        <f>RAW!B32</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="C32">
+        <f>RAW!C32</f>
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D32">
+        <f>RAW!D32</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E32">
+        <f>RAW!E32</f>
+        <v>1.136E-2</v>
+      </c>
+      <c r="F32">
+        <f>RAW!F32</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>RAW!A33</f>
+        <v>UPRO</v>
+      </c>
+      <c r="B33">
+        <f>RAW!B33</f>
+        <v>0.28954127873380597</v>
+      </c>
+      <c r="C33">
+        <f>RAW!C33</f>
+        <v>0.37949300000000002</v>
+      </c>
+      <c r="D33">
+        <f>RAW!D33</f>
+        <v>0.27764239606770003</v>
+      </c>
+      <c r="E33">
+        <f>RAW!E33</f>
+        <v>0.197253780372175</v>
+      </c>
+      <c r="F33">
+        <f>RAW!F33</f>
+        <v>0.209476292284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>RAW!A34</f>
+        <v>VSMO</v>
+      </c>
+      <c r="B34">
+        <f>RAW!B34</f>
+        <v>279.83</v>
+      </c>
+      <c r="C34">
+        <f>RAW!C34</f>
+        <v>533.91</v>
+      </c>
+      <c r="D34">
+        <f>RAW!D34</f>
+        <v>831.07</v>
+      </c>
+      <c r="E34">
+        <f>RAW!E34</f>
+        <v>1246.22</v>
+      </c>
+      <c r="F34">
+        <f>RAW!F34</f>
+        <v>2116</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D110DFBE-ADE4-E04A-9044-2F0524C29F6E}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1">
         <v>2012</v>
       </c>
       <c r="C1">
@@ -497,228 +1419,287 @@
       <c r="F1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2">
+        <v>1.1636</v>
+      </c>
+      <c r="C2">
+        <v>2.4984000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>17.479500000000002</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>185</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>410</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>113</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>164</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>299.11060000000003</v>
-      </c>
-      <c r="C3">
-        <v>74.850000000000009</v>
-      </c>
-      <c r="D3">
-        <v>16.13</v>
-      </c>
-      <c r="E3">
-        <v>112.89000000000001</v>
-      </c>
-      <c r="F3">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.48</v>
-      </c>
-      <c r="C4">
-        <v>2.36</v>
-      </c>
-      <c r="D4">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="E4">
-        <v>6.92</v>
-      </c>
-      <c r="F4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>2.4369000000000001</v>
+        <v>10.66</v>
       </c>
       <c r="C5">
-        <v>3.1159598600780001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D5">
-        <v>3.3410827942322801</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="E5">
-        <v>5.9154669462660001</v>
+        <v>58.879999999999995</v>
       </c>
       <c r="F5">
-        <v>5.3870020455900001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80.100000000000009</v>
+      </c>
+      <c r="G5">
+        <f>24.44+22.28+35.61+27.72</f>
+        <v>110.05</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>0.57999999999999996</v>
+        <v>8.0730999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.8220000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.99</v>
+      </c>
+      <c r="C7">
+        <v>7.2</v>
+      </c>
+      <c r="D7">
+        <v>7.2</v>
+      </c>
+      <c r="E7">
+        <v>7.89</v>
+      </c>
+      <c r="F7">
+        <v>8.0396999999999998</v>
+      </c>
+      <c r="G7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>400.83</v>
+      </c>
+      <c r="C8">
+        <v>469.17999999999995</v>
+      </c>
+      <c r="D8">
+        <v>1432.38</v>
+      </c>
+      <c r="E8">
+        <v>857.16</v>
+      </c>
+      <c r="F8">
+        <v>890.35</v>
+      </c>
+      <c r="G8">
+        <f>224.2+550</f>
+        <v>774.2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>9.5560599999999999E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.3587510000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.561855E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.8863000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.6624499999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>7.8</v>
-      </c>
-      <c r="C7">
-        <v>7.09</v>
-      </c>
-      <c r="D7">
-        <v>7.09</v>
-      </c>
-      <c r="E7">
-        <v>10.64</v>
-      </c>
-      <c r="F7">
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2.5</v>
-      </c>
-      <c r="F8">
+      <c r="G10">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.22</v>
-      </c>
-      <c r="C9">
-        <v>2.38</v>
-      </c>
-      <c r="D9">
-        <v>3.87</v>
-      </c>
-      <c r="E9">
-        <v>7.11</v>
-      </c>
-      <c r="F9">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4.1021999999999998</v>
-      </c>
-      <c r="C10">
-        <v>4.848555414552</v>
-      </c>
-      <c r="D10">
-        <v>4.0500339046320004</v>
-      </c>
-      <c r="E10">
-        <v>5.9154669462660001</v>
-      </c>
-      <c r="F10">
-        <v>5.3870020455900001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>2.3619999999999999E-2</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>2.3363999999999999E-2</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>0.2336</v>
+        <v>154</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F11">
-        <v>1.2977452999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1.06E-2</v>
+        <v>1.3234735039000001</v>
       </c>
       <c r="C12">
-        <v>1.0699999999999999E-2</v>
+        <v>0.4556</v>
       </c>
       <c r="D12">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.136E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>9.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.107405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -738,404 +1719,424 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>1.3234735039000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C14">
-        <v>0.4556</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="F14">
-        <v>8.107405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>3.24</v>
+        <v>299.11060000000003</v>
       </c>
       <c r="C15">
-        <v>5.85</v>
+        <v>74.850000000000009</v>
       </c>
       <c r="D15">
-        <v>1.9</v>
+        <v>16.13</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>112.89000000000001</v>
       </c>
       <c r="F15">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>14.6</v>
+        <v>1.22</v>
       </c>
       <c r="C16">
-        <v>23.82</v>
+        <v>2.38</v>
       </c>
       <c r="D16">
-        <v>25.759999999999998</v>
+        <v>3.87</v>
       </c>
       <c r="E16">
-        <v>19.62</v>
+        <v>7.11</v>
       </c>
       <c r="F16">
-        <v>27.59</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>2.044E-2</v>
       </c>
       <c r="C17">
-        <v>152</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D17">
-        <v>139</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>4.4215194999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>2.044E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.8E-3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1.9699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1.0800000000000001E-2</v>
+        <v>3.09971E-2</v>
       </c>
       <c r="F18">
-        <v>4.4215194999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>5.99</v>
+        <v>8.8201000000000002E-2</v>
       </c>
       <c r="C19">
-        <v>7.2</v>
+        <v>5.9749999999999998E-2</v>
       </c>
       <c r="D19">
-        <v>7.2</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="E19">
-        <v>7.89</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="F19">
-        <v>8.0396999999999998</v>
+        <v>3.1205E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>1.1636</v>
+        <v>7.8</v>
       </c>
       <c r="C20">
-        <v>2.4984000000000002</v>
+        <v>7.09</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10.64</v>
       </c>
       <c r="F20">
-        <v>17.479500000000002</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>8.8201000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C21">
-        <v>5.9749999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
-        <v>4.2200000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E21">
-        <v>0.12970000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>3.1205E-2</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>0.28954127873380597</v>
+        <v>14.6</v>
       </c>
       <c r="C22">
-        <v>0.37949300000000002</v>
+        <v>23.82</v>
       </c>
       <c r="D22">
-        <v>0.27764239606770003</v>
+        <v>25.759999999999998</v>
       </c>
       <c r="E22">
-        <v>0.197253780372175</v>
+        <v>19.62</v>
       </c>
       <c r="F22">
-        <v>0.209476292284</v>
+        <v>27.59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>11.456977999999999</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>6.80762</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D23">
-        <v>6.8545569999999998</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>6.8774629999999997</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>6.9754079999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>10.66</v>
+        <v>2.3619999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>8.3000000000000007</v>
+        <v>2.3363999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>73.680000000000007</v>
+        <v>0.2336</v>
       </c>
       <c r="E24">
-        <v>58.879999999999995</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>80.100000000000009</v>
+        <v>1.2977452999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>400.83</v>
+        <v>82.9</v>
       </c>
       <c r="C25">
-        <v>469.17999999999995</v>
+        <v>34.75</v>
       </c>
       <c r="D25">
-        <v>1432.38</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>857.16</v>
+        <v>225</v>
       </c>
       <c r="F25">
-        <v>890.35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>279.83</v>
+        <v>11.456977999999999</v>
       </c>
       <c r="C26">
-        <v>533.91</v>
+        <v>6.80762</v>
       </c>
       <c r="D26">
-        <v>831.07</v>
+        <v>6.8545569999999998</v>
       </c>
       <c r="E26">
-        <v>1246.22</v>
+        <v>6.8774629999999997</v>
       </c>
       <c r="F26">
-        <v>2116</v>
+        <v>6.9754079999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>0.08</v>
+        <v>3.24</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>0.442881421</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>82.9</v>
+        <v>0.08</v>
       </c>
       <c r="C28">
-        <v>34.75</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>165</v>
+        <v>0.442881421</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2.4369000000000001</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3.1159598600780001</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3.3410827942322801</v>
       </c>
       <c r="E29">
-        <v>3.09971E-2</v>
+        <v>5.9154669462660001</v>
       </c>
       <c r="F29">
-        <v>5.1999999999999998E-2</v>
+        <v>5.3870020455900001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>4.1021999999999998</v>
       </c>
       <c r="C30">
-        <v>110</v>
+        <v>4.848555414552</v>
       </c>
       <c r="D30">
-        <v>154</v>
+        <v>4.0500339046320004</v>
       </c>
       <c r="E30">
-        <v>177</v>
+        <v>5.9154669462660001</v>
       </c>
       <c r="F30">
-        <v>195</v>
+        <v>5.3870020455900001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="C31">
-        <v>5.5899999999999998E-2</v>
+        <v>2.36</v>
       </c>
       <c r="D31">
-        <v>8.0730999999999997E-2</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6.92</v>
       </c>
       <c r="F31">
-        <v>6.8220000000000003E-2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>1.06E-2</v>
       </c>
       <c r="C32">
-        <v>33.799999999999997</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>1.136E-2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>9.5560599999999999E-3</v>
+        <v>0.28954127873380597</v>
       </c>
       <c r="C33">
-        <v>1.3587510000000001E-2</v>
+        <v>0.37949300000000002</v>
       </c>
       <c r="D33">
-        <v>1.561855E-2</v>
+        <v>0.27764239606770003</v>
       </c>
       <c r="E33">
-        <v>3.8863000000000002E-2</v>
+        <v>0.197253780372175</v>
       </c>
       <c r="F33">
-        <v>4.6624499999999999E-2</v>
+        <v>0.209476292284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>279.83</v>
+      </c>
+      <c r="C34">
+        <v>533.91</v>
+      </c>
+      <c r="D34">
+        <v>831.07</v>
+      </c>
+      <c r="E34">
+        <v>1246.22</v>
+      </c>
+      <c r="F34">
+        <v>2116</v>
       </c>
     </row>
   </sheetData>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E411621-8491-7347-83E9-7538EF9A3B25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A9E7F363-1BEE-8149-AD31-16AA769EC94F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>BANEP</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>HYDR</t>
+  </si>
+  <si>
+    <t>MTLRP</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A26CE-BD0D-C046-AB98-C114D11257FF}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,6 +1141,26 @@
         <v>4.6624499999999999E-2</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.05</v>
+      </c>
+      <c r="C34">
+        <v>0.05</v>
+      </c>
+      <c r="D34">
+        <v>0.05</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
+      </c>
+      <c r="F34">
+        <v>10.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{520DFC14-FB3A-C44D-8465-B128591D9B0F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAB4585F-4A14-644A-A67D-278154B8A469}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
@@ -156,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,7 +1949,9 @@
       <c r="F24">
         <v>1.2977452999999999</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2136,7 +2138,7 @@
       <c r="F32">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1.9222E-2</v>
       </c>
     </row>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAB4585F-4A14-644A-A67D-278154B8A469}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FB93A56-3459-1A4D-BE6A-F2CB232D4007}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
+    <workbookView xWindow="320" yWindow="1220" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="1" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2000,7 +2000,7 @@
       <c r="F26">
         <v>6.9754079999999998</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>8.3675929999999994</v>
       </c>
     </row>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FB93A56-3459-1A4D-BE6A-F2CB232D4007}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B806FC98-E7AE-4340-9790-1EE66C9600C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1220" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="1" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1456,7 @@
       <c r="F3">
         <v>250</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>235+112+185</f>
         <v>532</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="F5">
         <v>80.100000000000009</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f>24.44+22.28+35.61+27.72</f>
         <v>110.05</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="F6">
         <v>6.8220000000000003E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.14493</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="F12">
         <v>8.107405</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>13.4682</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="F13">
         <v>78</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>78</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="F19">
         <v>3.1205E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>3.1629999999999998E-2</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       <c r="F34">
         <v>2116</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <f>762.68+890.45</f>
         <v>1653.13</v>
       </c>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B806FC98-E7AE-4340-9790-1EE66C9600C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAF73620-6A35-B946-A307-F7AC21A98904}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
+    <workbookView xWindow="24740" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="1" r:id="rId1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1433,7 @@
       <c r="F2">
         <v>17.479500000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>12.805300000000001</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       <c r="F14">
         <v>1.962</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f>0.869+1.11+0.806</f>
         <v>2.7850000000000001</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="F15">
         <v>64.5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="F16">
         <v>7.68</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f>2.49+5.47</f>
         <v>7.96</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="F17">
         <v>4.4215194999999999E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>2.0821200000000002E-2</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="F18">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f>0.0116502+0.0185868</f>
         <v>3.0237E-2</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="F20">
         <v>10.64</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f>8.45+2.19</f>
         <v>10.639999999999999</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="F21">
         <v>10.28</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>16.66</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="F24">
         <v>1.2977452999999999</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       <c r="F28">
         <v>0.442881421</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/legacy_dividends/dividends.xlsx
+++ b/data/legacy_dividends/dividends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/data/legacy_dividends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAF73620-6A35-B946-A307-F7AC21A98904}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF341E59-7891-064D-9F84-5304AC9682FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24740" yWindow="460" windowWidth="25600" windowHeight="26740" activeTab="1" xr2:uid="{8A897EED-2670-9C48-B30F-67226A954D52}"/>
   </bookViews>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E8FD83-1142-B247-BC3E-285BC03B1D75}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1902,7 @@
       <c r="F22">
         <v>27.59</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f>10.4+23.4</f>
         <v>33.799999999999997</v>
       </c>
@@ -1976,7 +1976,7 @@
         <f>63+33+39+30</f>
         <v>165</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f>21+24+21+15</f>
         <v>81</v>
       </c>
